--- a/Assets/Example/test.xlsx
+++ b/Assets/Example/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OnClick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Unity\WooLocalization\Assets\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E14FC7-A85C-48BE-858F-DA97F38BF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DC582B-D1FB-4831-B7A8-000970F41134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="2280" windowWidth="21600" windowHeight="11175"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Localization Data" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>zh-Hans</t>
-  </si>
-  <si>
     <t>zh-TW</t>
   </si>
   <si>
@@ -153,11 +150,15 @@
   <si>
     <t>加载成功</t>
   </si>
+  <si>
+    <t>zh-CHS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1105,175 +1106,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="252" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="266" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Example/test.xlsx
+++ b/Assets/Example/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Unity\WooLocalization\Assets\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DC582B-D1FB-4831-B7A8-000970F41134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C222310-D883-431C-A035-E8317FCF2AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Localization Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Key</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>zh-CHS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1107,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1118,7 +1122,7 @@
     <col min="2" max="2" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,15 +1139,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>

--- a/Assets/Example/test.xlsx
+++ b/Assets/Example/test.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Unity\WooLocalization\Assets\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C222310-D883-431C-A035-E8317FCF2AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D85AE03-9E9B-401C-B626-78B494B161AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Localization Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Key</t>
   </si>
@@ -156,6 +157,18 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaga</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>《健康游戏忠告》
+抵制不良游戏，拒绝盗版游戏。
+注意自我保护，谨防受骗上当。
+适度游戏益脑，沉迷游戏伤身。
+合理安排时间，享受健康生活。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1113,16 +1126,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1270,7 +1283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1278,13 +1291,63 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8593DC-4C97-4BCD-9EBD-9EF04A555F37}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
